--- a/TestFiles/SchedulingAlgorithmTestScenarios/Small Scenarios/No Errors/Scenario1/ARRAY VIEW.xlsx
+++ b/TestFiles/SchedulingAlgorithmTestScenarios/Small Scenarios/No Errors/Scenario1/ARRAY VIEW.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="124">
   <si>
     <t>coursesToSchedule</t>
   </si>
@@ -316,6 +316,78 @@
   </si>
   <si>
     <t>SAMMY</t>
+  </si>
+  <si>
+    <t>used time slots</t>
+  </si>
+  <si>
+    <t>9-410w</t>
+  </si>
+  <si>
+    <t>TR/16.00</t>
+  </si>
+  <si>
+    <t>TR/11.3</t>
+  </si>
+  <si>
+    <t>TR/8.3</t>
+  </si>
+  <si>
+    <t>MTWR/11.00</t>
+  </si>
+  <si>
+    <t>MTWR/15.00</t>
+  </si>
+  <si>
+    <t>MTWR/14.00</t>
+  </si>
+  <si>
+    <t>TR/10.00</t>
+  </si>
+  <si>
+    <t>MWFS/12.00</t>
+  </si>
+  <si>
+    <t>MTWR/7.00</t>
+  </si>
+  <si>
+    <t>MTWR/18.00</t>
+  </si>
+  <si>
+    <t>MWFS/13.3</t>
+  </si>
+  <si>
+    <t>MTWR/19.00</t>
+  </si>
+  <si>
+    <t>TRS/11.00</t>
+  </si>
+  <si>
+    <t>MTWR/9.00</t>
+  </si>
+  <si>
+    <t>MTWR/20.00</t>
+  </si>
+  <si>
+    <t>MTWR/8.00</t>
+  </si>
+  <si>
+    <t>MWF/14.30</t>
+  </si>
+  <si>
+    <t>MWFS/18.02</t>
+  </si>
+  <si>
+    <t>TRS/19.30</t>
+  </si>
+  <si>
+    <t>MTWR/10.00</t>
+  </si>
+  <si>
+    <t>MWFS/15.00</t>
+  </si>
+  <si>
+    <t>MWFS/16.30</t>
   </si>
 </sst>
 </file>
@@ -651,65 +723,65 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1013,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K160"/>
+  <dimension ref="A1:K170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,36 +1102,36 @@
     <col min="41" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-    </row>
-    <row r="2" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+    </row>
+    <row r="2" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2">
@@ -1097,31 +1169,31 @@
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>66</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="20" t="s">
         <v>67</v>
       </c>
       <c r="K4" s="10" t="s">
@@ -1365,31 +1437,31 @@
       <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="22" t="s">
+      <c r="B12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="22" t="s">
+      <c r="G12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="21" t="s">
         <v>2</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="21" t="s">
         <v>2</v>
       </c>
       <c r="K12" s="14" t="s">
@@ -1397,7 +1469,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>69</v>
       </c>
       <c r="B14" s="2">
@@ -1498,7 +1570,7 @@
       <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>70</v>
       </c>
       <c r="B21" s="2">
@@ -1577,7 +1649,7 @@
       <c r="B27" s="12"/>
     </row>
     <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="2">
@@ -1673,7 +1745,7 @@
       <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>51</v>
       </c>
       <c r="B35" s="2">
@@ -1775,7 +1847,7 @@
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="22" t="s">
         <v>71</v>
       </c>
       <c r="B42" s="2">
@@ -1877,7 +1949,7 @@
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="22" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="2">
@@ -1967,7 +2039,7 @@
       <c r="B55" s="12"/>
     </row>
     <row r="56" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="22" t="s">
         <v>72</v>
       </c>
       <c r="B56" s="2">
@@ -2045,7 +2117,7 @@
       <c r="B62" s="12"/>
     </row>
     <row r="63" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B63" s="2">
@@ -2143,7 +2215,7 @@
       <c r="H69" s="12"/>
     </row>
     <row r="70" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B70" s="2">
@@ -2239,7 +2311,7 @@
       <c r="H76" s="12"/>
     </row>
     <row r="77" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="22" t="s">
         <v>73</v>
       </c>
       <c r="B77" s="2">
@@ -2253,6 +2325,9 @@
         <v>47</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>98</v>
       </c>
       <c r="G78" s="8"/>
@@ -2263,45 +2338,57 @@
         <v>42</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G79" s="8"/>
-      <c r="H79" s="12"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="12"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B80" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G80" s="8"/>
-      <c r="H80" s="12"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E80" s="8"/>
+      <c r="F80" s="12"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B81" s="5">
-        <v>2</v>
-      </c>
-      <c r="G81" s="8"/>
-      <c r="H81" s="12"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C81" s="5">
+        <v>2</v>
+      </c>
+      <c r="E81" s="8"/>
+      <c r="F81" s="12"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B82" s="7">
+        <v>6</v>
+      </c>
+      <c r="C82" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="32" t="s">
+    <row r="84" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="31" t="s">
         <v>74</v>
       </c>
       <c r="B84" s="12">
@@ -2311,34 +2398,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B85" s="26" t="s">
+      <c r="B85" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="26" t="s">
+      <c r="C85" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B86" s="27">
+      <c r="B86" s="26">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C86" s="27">
+      <c r="C86" s="26">
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="32" t="s">
+    <row r="88" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="31" t="s">
         <v>75</v>
       </c>
       <c r="B88" s="12">
@@ -2348,62 +2435,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B89" s="26" t="s">
+      <c r="B89" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C89" s="26" t="s">
+      <c r="C89" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B90" s="27">
+      <c r="B90" s="26">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C90" s="27">
+      <c r="C90" s="26">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="16"/>
     </row>
-    <row r="92" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="32" t="s">
+    <row r="92" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="31" t="s">
         <v>76</v>
       </c>
       <c r="B92" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B93" s="24" t="s">
+      <c r="B93" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B94" s="25">
+      <c r="B94" s="24">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="32" t="s">
+    <row r="96" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="31" t="s">
         <v>77</v>
       </c>
       <c r="B96" s="12">
@@ -2414,7 +2501,7 @@
       <c r="A97" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B97" s="26" t="s">
+      <c r="B97" s="25" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2422,7 +2509,7 @@
       <c r="A98" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B98" s="27">
+      <c r="B98" s="26">
         <v>0.375</v>
       </c>
     </row>
@@ -2431,7 +2518,7 @@
       <c r="B99" s="12"/>
     </row>
     <row r="100" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="20" t="s">
+      <c r="A100" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B100" s="2">
@@ -2454,22 +2541,22 @@
       <c r="A101" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B101" s="28" t="s">
+      <c r="B101" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C101" s="21" t="s">
+      <c r="C101" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D101" s="28" t="s">
+      <c r="D101" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E101" s="21" t="s">
+      <c r="E101" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="F101" s="21" t="s">
+      <c r="F101" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G101" s="21" t="s">
+      <c r="G101" s="20" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2477,13 +2564,13 @@
       <c r="A102" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B102" s="29">
+      <c r="B102" s="28">
         <v>30</v>
       </c>
       <c r="C102" s="5">
         <v>25</v>
       </c>
-      <c r="D102" s="29">
+      <c r="D102" s="28">
         <v>40</v>
       </c>
       <c r="E102" s="5">
@@ -2500,13 +2587,13 @@
       <c r="A103" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B103" s="29" t="s">
+      <c r="B103" s="28" t="s">
         <v>2</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D103" s="29" t="s">
+      <c r="D103" s="28" t="s">
         <v>16</v>
       </c>
       <c r="E103" s="5" t="s">
@@ -2520,268 +2607,512 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+      <c r="B104" s="29"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B104" s="30"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="22"/>
-    </row>
-    <row r="106" spans="1:7" s="35" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B106" s="35">
-        <v>0</v>
-      </c>
-      <c r="C106" s="35">
-        <v>1</v>
-      </c>
-      <c r="D106" s="35">
-        <v>2</v>
-      </c>
-      <c r="E106" s="35">
-        <v>3</v>
-      </c>
-      <c r="F106" s="35">
-        <v>4</v>
-      </c>
-      <c r="G106" s="35">
-        <v>5</v>
-      </c>
+      <c r="B105" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E106" s="12"/>
+      <c r="F106" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G106" s="12"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B107" s="3">
-        <v>75</v>
-      </c>
-      <c r="C107" s="3">
-        <v>50</v>
-      </c>
-      <c r="D107" s="3">
-        <v>50</v>
-      </c>
-      <c r="E107" s="3">
-        <v>75</v>
-      </c>
-      <c r="F107" s="3">
-        <v>165</v>
-      </c>
-      <c r="G107" s="4">
-        <v>75</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G107" s="12"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>86</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G108" s="12"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B109" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E109" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="F109" s="5"/>
-      <c r="G109" s="33" t="s">
-        <v>88</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G109" s="12"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B110" s="34">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="C110" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D110" s="37">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F110" s="5"/>
-      <c r="G110" s="6" t="s">
-        <v>87</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G110" s="12"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G111" s="12"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G112" s="12"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="34" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B116" s="34">
+        <v>0</v>
+      </c>
+      <c r="C116" s="34">
+        <v>1</v>
+      </c>
+      <c r="D116" s="34">
+        <v>2</v>
+      </c>
+      <c r="E116" s="34">
+        <v>3</v>
+      </c>
+      <c r="F116" s="34">
+        <v>4</v>
+      </c>
+      <c r="G116" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B117" s="3">
+        <v>75</v>
+      </c>
+      <c r="C117" s="3">
+        <v>50</v>
+      </c>
+      <c r="D117" s="3">
+        <v>50</v>
+      </c>
+      <c r="E117" s="3">
+        <v>75</v>
+      </c>
+      <c r="F117" s="3">
+        <v>165</v>
+      </c>
+      <c r="G117" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B119" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E119" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F119" s="5"/>
+      <c r="G119" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B120" s="33">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C120" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D120" s="36">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F120" s="5"/>
+      <c r="G120" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B111" s="36">
+      <c r="B121" s="35">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C111" s="34">
+      <c r="C121" s="33">
         <v>0.625</v>
       </c>
-      <c r="D111" s="34">
+      <c r="D121" s="33">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E111" s="34" t="s">
+      <c r="E121" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F111" s="34">
+      <c r="F121" s="33">
         <v>0.625</v>
       </c>
-      <c r="G111" s="33">
+      <c r="G121" s="32">
         <v>0.625</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+    <row r="122" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B112" s="36"/>
-      <c r="C112" s="36" t="s">
+      <c r="B122" s="35"/>
+      <c r="C122" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D112" s="7"/>
-      <c r="E112" s="36">
+      <c r="D122" s="7"/>
+      <c r="E122" s="35">
         <v>0.75138888888888899</v>
       </c>
-      <c r="F112" s="36">
+      <c r="F122" s="35">
         <v>0.75</v>
       </c>
-      <c r="G112" s="31" t="s">
+      <c r="G122" s="30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="2">
-        <v>2</v>
-      </c>
-      <c r="E148" s="2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B123" s="1">
+        <v>16</v>
+      </c>
+      <c r="C123" s="1">
+        <v>14</v>
+      </c>
+      <c r="D123" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="E123" s="1">
+        <v>12</v>
+      </c>
+      <c r="G123" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B124" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="C124" s="1">
+        <v>11</v>
+      </c>
+      <c r="D124" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="E124" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="G124" s="1">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B125" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C125" s="1">
+        <v>15</v>
+      </c>
+      <c r="E125" s="1">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B126" s="1">
+        <v>10</v>
+      </c>
+      <c r="C126" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C127" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C128" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="2">
+        <v>2</v>
+      </c>
+      <c r="E158" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D149" s="21" t="s">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D159" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E149" s="21" t="s">
+      <c r="E159" s="20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D150" s="5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D160" s="5">
         <v>20</v>
       </c>
-      <c r="E150" s="5">
+      <c r="E160" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D151" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E151" s="5" t="s">
+    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D161" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E161" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D152" s="22"/>
-      <c r="E152" s="22"/>
-    </row>
-    <row r="154" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D154" s="2">
-        <v>2</v>
-      </c>
-      <c r="E154" s="2">
+    <row r="162" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D162" s="21"/>
+      <c r="E162" s="21"/>
+    </row>
+    <row r="164" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D164" s="2">
+        <v>2</v>
+      </c>
+      <c r="E164" s="2">
         <v>3</v>
       </c>
-      <c r="F154" s="2">
+      <c r="F164" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D155" s="10">
+    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D165" s="10">
         <v>75</v>
       </c>
-      <c r="E155" s="10">
+      <c r="E165" s="10">
         <v>75</v>
       </c>
-      <c r="F155" s="4">
+      <c r="F165" s="4">
         <v>165</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D156" s="12" t="s">
+    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D166" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E156" s="12" t="s">
+      <c r="E166" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F156" s="6" t="s">
+      <c r="F166" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D157" s="16"/>
-      <c r="E157" s="12" t="s">
+    <row r="167" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D167" s="16"/>
+      <c r="E167" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F157" s="6"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D158" s="17" t="s">
+      <c r="F167" s="6"/>
+    </row>
+    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D168" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E158" s="16" t="s">
+      <c r="E168" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F158" s="6"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D159" s="16">
+      <c r="F168" s="6"/>
+    </row>
+    <row r="169" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D169" s="16">
         <v>0.625</v>
       </c>
-      <c r="E159" s="12"/>
-      <c r="F159" s="6"/>
-    </row>
-    <row r="160" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D160" s="14"/>
-      <c r="E160" s="14"/>
-      <c r="F160" s="31">
+      <c r="E169" s="12"/>
+      <c r="F169" s="6"/>
+    </row>
+    <row r="170" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D170" s="14"/>
+      <c r="E170" s="14"/>
+      <c r="F170" s="30">
         <v>0.75</v>
       </c>
     </row>
